--- a/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.8963997087504942</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9087212395893065</v>
+        <v>0.9087212395893064</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9009455044534442</v>
+        <v>0.9004684352372044</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8756176503487656</v>
+        <v>0.8731127586873524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8947860737956767</v>
+        <v>0.8941275879859225</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9388498665469186</v>
+        <v>0.9393752955140504</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9139293322324376</v>
+        <v>0.9149420379220763</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9208796281687386</v>
+        <v>0.9210426379945772</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.9099020780891485</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9134097185207133</v>
+        <v>0.9134097185207132</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9116902087940509</v>
+        <v>0.9116902087940508</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8875883832162316</v>
+        <v>0.8876437689958891</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8994140345522273</v>
+        <v>0.89796792745557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8989005757354921</v>
+        <v>0.8980494469286096</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9278579076901942</v>
+        <v>0.928173224465621</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9285573589637842</v>
+        <v>0.9264799669957098</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9229153022364806</v>
+        <v>0.9227658404469327</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8978077035821052</v>
+        <v>0.8978077035821053</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8955556229382341</v>
+        <v>0.8955556229382343</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8966753161969443</v>
+        <v>0.8966753161969441</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8700066361853817</v>
+        <v>0.8698257940214008</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8741435919617619</v>
+        <v>0.8749383633389098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8787428100819459</v>
+        <v>0.8814446773171628</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9204553219047024</v>
+        <v>0.9207022901332075</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9138730995503702</v>
+        <v>0.9141339595289376</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9118813149718132</v>
+        <v>0.9122003402772769</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9072991861927685</v>
+        <v>0.9072991861927682</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.9062187836885263</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9067303645231017</v>
+        <v>0.9067303645231016</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8863101671259007</v>
+        <v>0.8846219309720331</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8895323828737828</v>
+        <v>0.8878291983932787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8929266400010947</v>
+        <v>0.8916479086506441</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9238136583541011</v>
+        <v>0.924047104483969</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9213251796869117</v>
+        <v>0.9192751047989168</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9179273103159133</v>
+        <v>0.9176696770836457</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8980254155979286</v>
+        <v>0.8970382423374945</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8956817484851252</v>
+        <v>0.8966903468789036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8992146957068997</v>
+        <v>0.8990062276697658</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9190764967428776</v>
+        <v>0.9184571363208037</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9121354211624434</v>
+        <v>0.9136904331842355</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9127544845074419</v>
+        <v>0.912620950595928</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>555337</v>
+        <v>555043</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>578988</v>
+        <v>577332</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1143204</v>
+        <v>1142362</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>578701</v>
+        <v>579025</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>604321</v>
+        <v>604991</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1176542</v>
+        <v>1176750</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>856699</v>
+        <v>856753</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>902758</v>
+        <v>901307</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1769861</v>
+        <v>1768185</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>895568</v>
+        <v>895872</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>932010</v>
+        <v>929925</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1817144</v>
+        <v>1816849</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>664262</v>
+        <v>664124</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>674988</v>
+        <v>675602</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1349472</v>
+        <v>1353621</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>702781</v>
+        <v>702969</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>705666</v>
+        <v>705868</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1400362</v>
+        <v>1400852</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>826634</v>
+        <v>825059</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>922468</v>
+        <v>920702</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1758793</v>
+        <v>1756274</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>861612</v>
+        <v>861830</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>955438</v>
+        <v>953312</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1808037</v>
+        <v>1807529</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2943527</v>
+        <v>2940291</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3111731</v>
+        <v>3115235</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6071430</v>
+        <v>6070023</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3012528</v>
+        <v>3010498</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3168893</v>
+        <v>3174296</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6162850</v>
+        <v>6161948</v>
       </c>
     </row>
     <row r="24">
